--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4399.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4399.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hardik H Pandya</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>16/10/2016</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>23/10/2016</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1015,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>11/06/2017</t>
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1062,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -1008,7 +1069,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1060,7 +1121,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1161,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -1108,7 +1168,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1160,7 +1220,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1260,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>30/06/2017</t>
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1359,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>06/07/2017</t>
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1348,7 +1406,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>20/08/2017</t>
@@ -1356,7 +1413,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1408,7 +1465,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1448,7 +1505,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>27/08/2017</t>
@@ -1456,7 +1512,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1508,7 +1564,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1612,7 +1668,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1664,7 +1720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1716,7 +1772,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1756,7 +1812,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>01/10/2017</t>
@@ -1764,7 +1819,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1816,7 +1871,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1868,7 +1923,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1920,7 +1975,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1972,7 +2027,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2024,7 +2079,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2064,7 +2119,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>17/12/2017</t>
@@ -2072,7 +2126,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2124,7 +2178,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2164,7 +2218,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>04/02/2018</t>
@@ -2172,7 +2225,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2224,7 +2277,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2276,7 +2329,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2328,7 +2381,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2368,7 +2421,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -2376,7 +2428,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2416,7 +2468,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>12/07/2018</t>
@@ -2424,7 +2475,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2476,7 +2527,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2528,7 +2579,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2568,7 +2619,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>19/09/2018</t>
@@ -2576,7 +2626,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2616,7 +2666,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>28/01/2019</t>
@@ -2624,7 +2673,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2676,7 +2725,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2728,7 +2777,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2780,7 +2829,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2832,7 +2881,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2884,7 +2933,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2936,7 +2985,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2988,7 +3037,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3040,7 +3089,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3092,7 +3141,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3144,7 +3193,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3196,7 +3245,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3248,7 +3297,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3300,7 +3349,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3352,7 +3401,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3404,7 +3453,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3456,7 +3505,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3508,7 +3557,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3548,7 +3597,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>18/07/2021</t>
@@ -3556,7 +3604,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3608,7 +3656,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3660,7 +3708,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4485</t>
+          <t>4485</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3700,7 +3748,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>12/07/2022</t>
@@ -3708,7 +3755,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3760,7 +3807,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3812,7 +3859,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3864,7 +3911,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3916,7 +3963,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3968,7 +4015,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4008,7 +4055,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>21/01/2023</t>
@@ -4016,7 +4062,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4068,7 +4114,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4120,7 +4166,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4172,7 +4218,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4224,7 +4270,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4263,7 +4309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4285,7 +4331,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4322,7 +4368,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4359,7 +4405,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4396,7 +4442,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4433,7 +4479,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4470,7 +4516,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4507,7 +4553,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4544,7 +4590,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4581,7 +4627,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4618,7 +4664,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4655,7 +4701,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4692,7 +4738,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4729,7 +4775,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4766,7 +4812,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4803,7 +4849,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4840,7 +4886,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4877,7 +4923,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4914,7 +4960,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4951,7 +4997,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4988,7 +5034,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5025,7 +5071,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5062,7 +5108,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5099,7 +5145,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5136,7 +5182,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5173,7 +5219,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5210,7 +5256,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5247,7 +5293,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5284,7 +5330,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5321,7 +5367,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5358,7 +5404,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5395,7 +5441,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5432,7 +5478,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5469,7 +5515,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5506,7 +5552,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5543,7 +5589,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5580,7 +5626,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5617,7 +5663,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5654,7 +5700,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5691,7 +5737,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5728,7 +5774,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5765,7 +5811,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5802,7 +5848,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5839,7 +5885,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5876,7 +5922,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5913,7 +5959,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5950,7 +5996,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5987,7 +6033,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6024,7 +6070,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6061,7 +6107,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6098,7 +6144,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6135,7 +6181,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6172,7 +6218,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6209,7 +6255,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6246,7 +6292,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6283,7 +6329,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6320,7 +6366,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6357,7 +6403,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6394,7 +6440,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6431,7 +6477,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4485</t>
+          <t>4485</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6468,7 +6514,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6505,7 +6551,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6542,7 +6588,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6579,7 +6625,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6616,7 +6662,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6653,7 +6699,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6690,7 +6736,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6727,7 +6773,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6764,7 +6810,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6801,7 +6847,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6838,7 +6884,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6864,6 +6910,547 @@
       <c r="G70" t="inlineStr">
         <is>
           <t>3/44</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30.46%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>19.45%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4485</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.44%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>19.86%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.20%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>16.44%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>14.03%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13.09%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.85%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>16.13%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4399.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4399.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6970,10 +6971,6 @@
           <t>4435</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6986,10 +6983,6 @@
           <t>4436</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7062,15 +7055,476 @@
           <t>4456</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>19.45%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4485</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.44%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>19.86%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.20%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>16.44%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>14.03%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13.09%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.85%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>16.13%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7078,29 +7532,12 @@
           <t>4457</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>19.45%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7108,15 +7545,14 @@
           <t>4480</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7126,25 +7562,12 @@
           <t>4482</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7152,27 +7575,14 @@
           <t>4485</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>6</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.44%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7182,17 +7592,12 @@
           <t>4609</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>6</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7200,27 +7605,14 @@
           <t>4613</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>6</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>19.86%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7230,27 +7622,14 @@
           <t>4618</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>6</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>27.20%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -7262,13 +7641,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7276,29 +7648,12 @@
           <t>4689</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>16.44%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7308,13 +7663,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7322,15 +7670,14 @@
           <t>4695</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7340,27 +7687,14 @@
           <t>4697</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>6</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>14.03%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7370,27 +7704,14 @@
           <t>4725</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>6</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>13.09%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7400,29 +7721,12 @@
           <t>4728</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.85%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7430,27 +7734,14 @@
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>6</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>16.13%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4399.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4399.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6971,6 +6970,10 @@
           <t>4435</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6983,6 +6986,10 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7055,6 +7062,10 @@
           <t>4456</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7100,6 +7111,9 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7125,6 +7139,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7170,6 +7185,9 @@
       <c r="B11" t="n">
         <v>6</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7242,6 +7260,10 @@
           <t>4687</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7284,6 +7306,10 @@
           <t>4692</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7299,6 +7325,9 @@
       <c r="B17" t="n">
         <v>6</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7422,326 +7451,6 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4345</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4350</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4482</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4485</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4687</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4689</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>30.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4399.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4399.xlsx
@@ -6924,7 +6924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6967,7 +6967,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4435</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -6983,13 +6983,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15.25%</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6999,41 +7013,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4437</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>30.46%</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4454</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -7047,7 +7049,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t>3.73%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -7059,13 +7061,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>3974</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11.24%</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7075,27 +7091,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>19.45%</t>
-        </is>
-      </c>
+          <t>3976</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7105,12 +7107,10 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -7123,11 +7123,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4482</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -7136,10 +7136,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.27%</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7149,7 +7153,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -7157,17 +7161,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.44%</t>
+          <t>2.80%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -7179,7 +7183,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -7197,27 +7201,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>19.86%</t>
-        </is>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7227,27 +7219,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>27.20%</t>
-        </is>
-      </c>
+          <t>4050</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7257,7 +7235,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -7273,15 +7251,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -7291,7 +7269,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>16.44%</t>
+          <t>1.29%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -7303,7 +7281,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4692</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -7319,15 +7297,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11.24%</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7337,27 +7327,15 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>14.03%</t>
-        </is>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7367,27 +7345,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>13.09%</t>
-        </is>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7397,27 +7363,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.85%</t>
-        </is>
-      </c>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7427,28 +7379,1306 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5.07%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.54%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7.94%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.53%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.37%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>8.93%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4128</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4.62%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3.11%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4133</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>8.90%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>17.39%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>17.86%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>13.64%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>7.74%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>17.16%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14.71%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2.64%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>30.46%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>19.45%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>6</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4485</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>8.44%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>19.86%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>27.20%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>6</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>16.44%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14.03%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>13.09%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.85%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B75" t="n">
         <v>6</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>16.13%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
